--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AR2_50_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,18 +417,18 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="B2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="B3">
         <v>2008</v>
@@ -436,129 +436,96 @@
       <c r="D3">
         <v>2009</v>
       </c>
-      <c r="E3">
-        <v>1.747591372647683</v>
-      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="B4">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D4">
-        <v>2009</v>
-      </c>
-      <c r="E4">
-        <v>1.550936023497163</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="B5">
         <v>2009</v>
       </c>
       <c r="C5">
-        <v>1.834695583582491</v>
+        <v>1.834695583582535</v>
       </c>
       <c r="D5">
         <v>2010</v>
       </c>
-      <c r="E5">
-        <v>1.96900122769168</v>
-      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="B6">
-        <v>2009</v>
-      </c>
-      <c r="C6">
-        <v>1.834695583582491</v>
+        <v>2010</v>
       </c>
       <c r="D6">
-        <v>2010</v>
-      </c>
-      <c r="E6">
-        <v>1.889082028157629</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="B7">
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>1.767835936772166</v>
+        <v>1.767835936772144</v>
       </c>
       <c r="D7">
         <v>2011</v>
       </c>
-      <c r="E7">
-        <v>0.6540062440080208</v>
-      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="B8">
-        <v>2010</v>
-      </c>
-      <c r="C8">
-        <v>1.767835936772166</v>
+        <v>2011</v>
       </c>
       <c r="D8">
-        <v>2011</v>
-      </c>
-      <c r="E8">
-        <v>1.079453537436748</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="B9">
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>1.074400434091016</v>
+        <v>1.074400434091038</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
-      <c r="E9">
-        <v>1.266814459660814</v>
-      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="B10">
-        <v>2011</v>
-      </c>
-      <c r="C10">
-        <v>1.074400434091016</v>
+        <v>2012</v>
       </c>
       <c r="D10">
-        <v>2012</v>
-      </c>
-      <c r="E10">
-        <v>0.9325232237207937</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="B11">
         <v>2012</v>
@@ -570,29 +537,29 @@
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>1.148586223271275</v>
+        <v>1.274704633957136</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="B12">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C12">
-        <v>0.9212998022035679</v>
+        <v>1.097054137926201</v>
       </c>
       <c r="D12">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E12">
-        <v>0.9867800023970696</v>
+        <v>1.37755776875883</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="B13">
         <v>2013</v>
@@ -604,29 +571,29 @@
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>1.138072517022626</v>
+        <v>1.404348988410131</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="B14">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C14">
-        <v>1.141837882844188</v>
+        <v>1.385527545913412</v>
       </c>
       <c r="D14">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E14">
-        <v>1.372244540826872</v>
+        <v>1.329814931661888</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="B15">
         <v>2014</v>
@@ -638,29 +605,29 @@
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>1.13791261307421</v>
+        <v>1.269653854937691</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="B16">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C16">
-        <v>1.335361538769475</v>
+        <v>1.296301936385214</v>
       </c>
       <c r="D16">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E16">
-        <v>1.286349615500271</v>
+        <v>1.355477993452414</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="B17">
         <v>2015</v>
@@ -672,29 +639,29 @@
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>1.239356233827293</v>
+        <v>1.253742200752095</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="B18">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C18">
-        <v>1.202048372526998</v>
+        <v>2.441628883342295</v>
       </c>
       <c r="D18">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E18">
-        <v>2.809180028785785</v>
+        <v>1.386547975635688</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="B19">
         <v>2016</v>
@@ -706,29 +673,29 @@
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>2.112732612705837</v>
+        <v>1.805615391969595</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="B20">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C20">
-        <v>2.677488680362305</v>
+        <v>2.565764046666463</v>
       </c>
       <c r="D20">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E20">
-        <v>2.633898103989218</v>
+        <v>1.833587970352424</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="B21">
         <v>2017</v>
@@ -740,63 +707,63 @@
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>1.304525109075838</v>
+        <v>1.661541796722577</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="B22">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C22">
-        <v>2.466954516646402</v>
+        <v>1.376993627314671</v>
       </c>
       <c r="D22">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E22">
-        <v>1.299687914466841</v>
+        <v>1.553425185274571</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>1.249164505240175</v>
+        <v>1.263447557103259</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>1.483396971945128</v>
+        <v>1.485511920344451</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>1.401189216021326</v>
+        <v>1.362852986880547</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>1.888152810688548</v>
+        <v>1.635045928803081</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="B25">
         <v>2018</v>
@@ -808,63 +775,63 @@
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>1.888152810688548</v>
+        <v>1.815016201748643</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="B26">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C26">
-        <v>1.401189216021326</v>
+        <v>1.868356483387124</v>
       </c>
       <c r="D26">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E26">
-        <v>2.193307704714287</v>
+        <v>1.600603483732033</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>2.143477242895631</v>
+        <v>2.117022522597423</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>1.700992538849677</v>
+        <v>1.745834498329324</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>2.217570159472659</v>
+        <v>2.244229492550187</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>2.055817427361806</v>
+        <v>1.944926006147352</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="B29">
         <v>2019</v>
@@ -876,63 +843,63 @@
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>2.081314808299584</v>
+        <v>1.810449264563152</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="B30">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C30">
-        <v>2.217567799050979</v>
+        <v>2.005372766276703</v>
       </c>
       <c r="D30">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E30">
-        <v>2.127197886948307</v>
+        <v>1.679039075934385</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>2.331396859582546</v>
+        <v>2.149400276001101</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>2.135511120197231</v>
+        <v>1.76475225558832</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>2.408621835913149</v>
+        <v>2.139672475020404</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>2.797576752784936</v>
+        <v>1.674992401025355</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="B33">
         <v>2020</v>
@@ -944,63 +911,63 @@
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>1.87485413606896</v>
+        <v>2.128328071999674</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="B34">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C34">
-        <v>2.139672475020404</v>
+        <v>2.273520076663971</v>
       </c>
       <c r="D34">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E34">
-        <v>1.925031960518697</v>
+        <v>1.827015901454287</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>2.537289456116776</v>
+        <v>2.453568910971748</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>1.300696220295894</v>
+        <v>2.131436976903012</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>2.435392224674993</v>
+        <v>2.100991693542231</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>0.3173162112820371</v>
+        <v>0.5797569954799853</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="B37">
         <v>2021</v>
@@ -1012,63 +979,63 @@
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>-0.65631506589936</v>
+        <v>1.11435041103376</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="B38">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C38">
-        <v>2.100991693542231</v>
+        <v>0.7380952286421882</v>
       </c>
       <c r="D38">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E38">
-        <v>0.2423318260859064</v>
+        <v>1.421947874507667</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>0.268099369888164</v>
+        <v>0.812682184439506</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>0.1986953960088078</v>
+        <v>1.556352278772266</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>0.7452509897571069</v>
+        <v>0.8967077601845341</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>1.028725335207503</v>
+        <v>1.891749670939347</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="B41">
         <v>2022</v>
@@ -1080,46 +1047,46 @@
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>1.278801470866475</v>
+        <v>0.3338851812143995</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="B42">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C42">
-        <v>0.8967077601845341</v>
+        <v>-0.4131792716363547</v>
       </c>
       <c r="D42">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E42">
-        <v>0.4168642513032284</v>
+        <v>1.173782198617435</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-0.3093403056675159</v>
+        <v>0.9940067218177528</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>0.9273921178055478</v>
+        <v>1.820779918499094</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="B44">
         <v>2023</v>
@@ -1131,12 +1098,12 @@
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>2.321849008702292</v>
+        <v>1.655852464312013</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="B45">
         <v>2023</v>
@@ -1148,63 +1115,63 @@
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>2.093035950778344</v>
+        <v>2.228542839642689</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="B46">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C46">
-        <v>0.782207885866093</v>
+        <v>1.805571054927801</v>
       </c>
       <c r="D46">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E46">
-        <v>1.787977508297245</v>
+        <v>1.632015075917925</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>1.356274578414407</v>
+        <v>1.634555928116921</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>0.8027039751693055</v>
+        <v>1.554016159863814</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>1.533774754225425</v>
+        <v>1.508385007449875</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>1.069697780284606</v>
+        <v>1.310740881193517</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="B49">
         <v>2024</v>
@@ -1216,46 +1183,46 @@
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.6266647386402369</v>
+        <v>0.9823016603409229</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="B50">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C50">
-        <v>1.508385007449875</v>
+        <v>0.6395223689078522</v>
       </c>
       <c r="D50">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="E50">
-        <v>0.5010010003247523</v>
+        <v>1.590970324046337</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.2751124249843251</v>
+        <v>0.6231570351797</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>0.5763579119224094</v>
+        <v>1.581524829939718</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45800</v>
+        <v>45891</v>
       </c>
       <c r="B52">
         <v>2025</v>
@@ -1267,24 +1234,7 @@
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>1.686249836453868</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="2">
-        <v>45891</v>
-      </c>
-      <c r="B53">
-        <v>2025</v>
-      </c>
-      <c r="C53">
-        <v>0.6014263374495288</v>
-      </c>
-      <c r="D53">
-        <v>2026</v>
-      </c>
-      <c r="E53">
-        <v>1.711639661404685</v>
+        <v>1.539180932382078</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AR2_50_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,18 +417,21 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39583</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>1.75539628881467</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="D2">
-        <v>2009</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39765</v>
+        <v>39583</v>
       </c>
       <c r="B3">
         <v>2008</v>
@@ -439,802 +442,840 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39948</v>
+        <v>39765</v>
       </c>
       <c r="B4">
+        <v>2008</v>
+      </c>
+      <c r="C4">
+        <v>2.213911448916162</v>
+      </c>
+      <c r="D4">
         <v>2009</v>
-      </c>
-      <c r="D4">
-        <v>2010</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40130</v>
+        <v>39948</v>
       </c>
       <c r="B5">
         <v>2009</v>
       </c>
-      <c r="C5">
-        <v>1.834695583582535</v>
-      </c>
       <c r="D5">
         <v>2010</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40310</v>
+        <v>40130</v>
       </c>
       <c r="B6">
+        <v>2009</v>
+      </c>
+      <c r="C6">
+        <v>2.533533936850563</v>
+      </c>
+      <c r="D6">
         <v>2010</v>
-      </c>
-      <c r="D6">
-        <v>2011</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40494</v>
+        <v>40310</v>
       </c>
       <c r="B7">
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>1.767835936772144</v>
+        <v>2.208165160720954</v>
       </c>
       <c r="D7">
         <v>2011</v>
       </c>
+      <c r="E7">
+        <v>1.903751357432193</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40676</v>
+        <v>40494</v>
       </c>
       <c r="B8">
+        <v>2010</v>
+      </c>
+      <c r="C8">
+        <v>2.088987486264915</v>
+      </c>
+      <c r="D8">
         <v>2011</v>
       </c>
-      <c r="D8">
-        <v>2012</v>
+      <c r="E8">
+        <v>1.485473821631844</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40862</v>
+        <v>40676</v>
       </c>
       <c r="B9">
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>1.074400434091038</v>
+        <v>1.614140618728332</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
+      <c r="E9">
+        <v>1.770808585446004</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>41044</v>
+        <v>40862</v>
       </c>
       <c r="B10">
+        <v>2011</v>
+      </c>
+      <c r="C10">
+        <v>1.212544822741002</v>
+      </c>
+      <c r="D10">
         <v>2012</v>
       </c>
-      <c r="D10">
-        <v>2013</v>
+      <c r="E10">
+        <v>1.799394172339341</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41228</v>
+        <v>41044</v>
       </c>
       <c r="B11">
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>0.9212998022035679</v>
+        <v>1.625793900975747</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>1.274704633957136</v>
+        <v>1.586821460965226</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41409</v>
+        <v>41228</v>
       </c>
       <c r="B12">
+        <v>2012</v>
+      </c>
+      <c r="C12">
+        <v>1.196776590518644</v>
+      </c>
+      <c r="D12">
         <v>2013</v>
       </c>
-      <c r="C12">
-        <v>1.097054137926201</v>
-      </c>
-      <c r="D12">
-        <v>2014</v>
-      </c>
       <c r="E12">
-        <v>1.37755776875883</v>
+        <v>1.2151583353186</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41592</v>
+        <v>41409</v>
       </c>
       <c r="B13">
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>1.141837882844188</v>
+        <v>0.8049364973309325</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>1.404348988410131</v>
+        <v>1.421244400332</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41774</v>
+        <v>41592</v>
       </c>
       <c r="B14">
+        <v>2013</v>
+      </c>
+      <c r="C14">
+        <v>0.4712609263772594</v>
+      </c>
+      <c r="D14">
         <v>2014</v>
       </c>
-      <c r="C14">
-        <v>1.385527545913412</v>
-      </c>
-      <c r="D14">
-        <v>2015</v>
-      </c>
       <c r="E14">
-        <v>1.329814931661888</v>
+        <v>1.107727073902187</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41957</v>
+        <v>41774</v>
       </c>
       <c r="B15">
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>1.335361538769475</v>
+        <v>0.5775251578155283</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>1.269653854937691</v>
+        <v>1.341244385861273</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>42137</v>
+        <v>41957</v>
       </c>
       <c r="B16">
+        <v>2014</v>
+      </c>
+      <c r="C16">
+        <v>0.8783377572271434</v>
+      </c>
+      <c r="D16">
         <v>2015</v>
       </c>
-      <c r="C16">
-        <v>1.296301936385214</v>
-      </c>
-      <c r="D16">
-        <v>2016</v>
-      </c>
       <c r="E16">
-        <v>1.355477993452414</v>
+        <v>1.612081704302182</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42321</v>
+        <v>42137</v>
       </c>
       <c r="B17">
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>1.202048372526998</v>
+        <v>1.901826580533572</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>1.253742200752095</v>
+        <v>1.53605963063923</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42503</v>
+        <v>42321</v>
       </c>
       <c r="B18">
+        <v>2015</v>
+      </c>
+      <c r="C18">
+        <v>2.29066283401107</v>
+      </c>
+      <c r="D18">
         <v>2016</v>
       </c>
-      <c r="C18">
-        <v>2.441628883342295</v>
-      </c>
-      <c r="D18">
-        <v>2017</v>
-      </c>
       <c r="E18">
-        <v>1.386547975635688</v>
+        <v>2.221748592150097</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42689</v>
+        <v>42503</v>
       </c>
       <c r="B19">
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>2.677488680362305</v>
+        <v>2.590339257583607</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>1.805615391969595</v>
+        <v>1.672072534917302</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42867</v>
+        <v>42689</v>
       </c>
       <c r="B20">
+        <v>2016</v>
+      </c>
+      <c r="C20">
+        <v>4.109890522944348</v>
+      </c>
+      <c r="D20">
         <v>2017</v>
       </c>
-      <c r="C20">
-        <v>2.565764046666463</v>
-      </c>
-      <c r="D20">
-        <v>2018</v>
-      </c>
       <c r="E20">
-        <v>1.833587970352424</v>
+        <v>2.932944072183674</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>43053</v>
+        <v>42867</v>
       </c>
       <c r="B21">
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>2.466954516646402</v>
+        <v>1.713587272940131</v>
       </c>
       <c r="D21">
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>1.661541796722577</v>
+        <v>1.721854626734953</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43145</v>
+        <v>43053</v>
       </c>
       <c r="B22">
+        <v>2017</v>
+      </c>
+      <c r="C22">
+        <v>1.336316831462692</v>
+      </c>
+      <c r="D22">
         <v>2018</v>
       </c>
-      <c r="C22">
-        <v>1.376993627314671</v>
-      </c>
-      <c r="D22">
-        <v>2019</v>
-      </c>
       <c r="E22">
-        <v>1.553425185274571</v>
+        <v>1.104283769064729</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43235</v>
+        <v>43145</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>1.263447557103259</v>
+        <v>1.808022822788802</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>1.485511920344451</v>
+        <v>1.867774135387434</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43326</v>
+        <v>43235</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>1.362852986880547</v>
+        <v>1.05432456490544</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>1.635045928803081</v>
+        <v>1.415552619392124</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43418</v>
+        <v>43326</v>
       </c>
       <c r="B25">
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>1.401189216021326</v>
+        <v>1.299469465444592</v>
       </c>
       <c r="D25">
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>1.815016201748643</v>
+        <v>1.645976944955962</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43510</v>
+        <v>43418</v>
       </c>
       <c r="B26">
+        <v>2018</v>
+      </c>
+      <c r="C26">
+        <v>1.197912858979611</v>
+      </c>
+      <c r="D26">
         <v>2019</v>
       </c>
-      <c r="C26">
-        <v>1.868356483387124</v>
-      </c>
-      <c r="D26">
-        <v>2020</v>
-      </c>
       <c r="E26">
-        <v>1.600603483732033</v>
+        <v>1.649865498505276</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43600</v>
+        <v>43510</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>2.117022522597423</v>
+        <v>2.247656020455691</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>1.745834498329324</v>
+        <v>1.934175841213626</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43691</v>
+        <v>43600</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>2.244229492550187</v>
+        <v>1.566023898188384</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>1.944926006147352</v>
+        <v>1.644188696416427</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43783</v>
+        <v>43691</v>
       </c>
       <c r="B29">
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>2.217567799050979</v>
+        <v>1.75655962297816</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>1.810449264563152</v>
+        <v>2.050351917667315</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43875</v>
+        <v>43783</v>
       </c>
       <c r="B30">
+        <v>2019</v>
+      </c>
+      <c r="C30">
+        <v>1.727537197898665</v>
+      </c>
+      <c r="D30">
         <v>2020</v>
       </c>
-      <c r="C30">
-        <v>2.005372766276703</v>
-      </c>
-      <c r="D30">
-        <v>2021</v>
-      </c>
       <c r="E30">
-        <v>1.679039075934385</v>
+        <v>2.284828905445169</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43966</v>
+        <v>43875</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>2.149400276001101</v>
+        <v>2.684967757027334</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>1.76475225558832</v>
+        <v>2.075491449101596</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>44068</v>
+        <v>43966</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>2.139672475020404</v>
+        <v>2.155932165770968</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>1.674992401025355</v>
+        <v>1.805141163113122</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44159</v>
+        <v>44068</v>
       </c>
       <c r="B33">
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>2.139672475020404</v>
+        <v>2.980209378995857</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>2.128328071999674</v>
+        <v>2.653391228709334</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44251</v>
+        <v>44159</v>
       </c>
       <c r="B34">
+        <v>2020</v>
+      </c>
+      <c r="C34">
+        <v>3.647228437274408</v>
+      </c>
+      <c r="D34">
         <v>2021</v>
       </c>
-      <c r="C34">
-        <v>2.273520076663971</v>
-      </c>
-      <c r="D34">
-        <v>2022</v>
-      </c>
       <c r="E34">
-        <v>1.827015901454287</v>
+        <v>3.474365686630398</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44341</v>
+        <v>44251</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>2.453568910971748</v>
+        <v>1.906805170974435</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>2.131436976903012</v>
+        <v>1.938263709207333</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44432</v>
+        <v>44341</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>2.100991693542231</v>
+        <v>2.443967114785739</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>0.5797569954799853</v>
+        <v>2.026008136667135</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44525</v>
+        <v>44432</v>
       </c>
       <c r="B37">
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>2.100991693542231</v>
+        <v>1.954146674711188</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>1.11435041103376</v>
+        <v>1.667670056759474</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44617</v>
+        <v>44525</v>
       </c>
       <c r="B38">
+        <v>2021</v>
+      </c>
+      <c r="C38">
+        <v>2.777797690741424</v>
+      </c>
+      <c r="D38">
         <v>2022</v>
       </c>
-      <c r="C38">
-        <v>0.7380952286421882</v>
-      </c>
-      <c r="D38">
-        <v>2023</v>
-      </c>
       <c r="E38">
-        <v>1.421947874507667</v>
+        <v>1.742844348069261</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44706</v>
+        <v>44617</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>0.812682184439506</v>
+        <v>1.467237762893392</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>1.556352278772266</v>
+        <v>1.862063279188941</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44798</v>
+        <v>44706</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>0.8967077601845341</v>
+        <v>0.388123216496683</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>1.891749670939347</v>
+        <v>1.819907598678561</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44890</v>
+        <v>44798</v>
       </c>
       <c r="B41">
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>0.8967077601845341</v>
+        <v>2.69102598245059</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>0.3338851812143995</v>
+        <v>3.239034933968399</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44981</v>
+        <v>44890</v>
       </c>
       <c r="B42">
+        <v>2022</v>
+      </c>
+      <c r="C42">
+        <v>0.6994919452575576</v>
+      </c>
+      <c r="D42">
         <v>2023</v>
       </c>
-      <c r="C42">
-        <v>-0.4131792716363547</v>
-      </c>
-      <c r="D42">
-        <v>2024</v>
-      </c>
       <c r="E42">
-        <v>1.173782198617435</v>
+        <v>0.5651273241891186</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45071</v>
+        <v>44981</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>0.9940067218177528</v>
+        <v>0.2809429127725194</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>1.820779918499094</v>
+        <v>1.721404396148163</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45163</v>
+        <v>45071</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>0.782207885866093</v>
+        <v>-2.811030211656218</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>1.655852464312013</v>
+        <v>0.8407670860975047</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45254</v>
+        <v>45163</v>
       </c>
       <c r="B45">
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>0.782207885866093</v>
+        <v>-1.669605379075589</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>2.228542839642689</v>
+        <v>0.6305126186323617</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45345</v>
+        <v>45254</v>
       </c>
       <c r="B46">
+        <v>2023</v>
+      </c>
+      <c r="C46">
+        <v>-1.432689847121871</v>
+      </c>
+      <c r="D46">
         <v>2024</v>
       </c>
-      <c r="C46">
-        <v>1.805571054927801</v>
-      </c>
-      <c r="D46">
-        <v>2025</v>
-      </c>
       <c r="E46">
-        <v>1.632015075917925</v>
+        <v>0.4518870186319468</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45436</v>
+        <v>45345</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>1.634555928116921</v>
+        <v>1.069839250900739</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>1.554016159863814</v>
+        <v>1.634674340565567</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45534</v>
+        <v>45436</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>1.508385007449875</v>
+        <v>1.250641979737566</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>1.310740881193517</v>
+        <v>1.466559393695466</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45618</v>
+        <v>45534</v>
       </c>
       <c r="B49">
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>1.508385007449875</v>
+        <v>1.780300968358017</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.9823016603409229</v>
+        <v>1.762346671645298</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45713</v>
+        <v>45618</v>
       </c>
       <c r="B50">
+        <v>2024</v>
+      </c>
+      <c r="C50">
+        <v>2.033479419175133</v>
+      </c>
+      <c r="D50">
         <v>2025</v>
       </c>
-      <c r="C50">
-        <v>0.6395223689078522</v>
-      </c>
-      <c r="D50">
-        <v>2026</v>
-      </c>
       <c r="E50">
-        <v>1.590970324046337</v>
+        <v>1.959987726090251</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45800</v>
+        <v>45713</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.6231570351797</v>
+        <v>2.97447584856072</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>1.581524829939718</v>
+        <v>1.953339169714385</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45891</v>
+        <v>45800</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.6014263374495288</v>
+        <v>2.302179720973463</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>1.539180932382078</v>
+        <v>1.805984941845473</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B53">
+        <v>2025</v>
+      </c>
+      <c r="C53">
+        <v>2.481068287768839</v>
+      </c>
+      <c r="D53">
+        <v>2026</v>
+      </c>
+      <c r="E53">
+        <v>1.908500198348873</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AR2_50_9_full.xlsx
@@ -929,13 +929,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>2.980209378995857</v>
+        <v>3.002689729985786</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>2.653391228709334</v>
+        <v>2.717337804233377</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -952,7 +952,7 @@
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>3.474365686630398</v>
+        <v>3.747212465804828</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -963,13 +963,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>1.906805170974435</v>
+        <v>1.862551092269715</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>1.938263709207333</v>
+        <v>2.008389843939007</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -980,13 +980,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>2.443967114785739</v>
+        <v>2.250958781244572</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>2.026008136667135</v>
+        <v>1.736577049860766</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -997,13 +997,13 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>1.954146674711188</v>
+        <v>2.162762949176789</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>1.667670056759474</v>
+        <v>2.210980515016114</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1020,7 +1020,7 @@
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>1.742844348069261</v>
+        <v>2.824945225847975</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1031,13 +1031,13 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>1.467237762893392</v>
+        <v>1.844973267139771</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>1.862063279188941</v>
+        <v>1.987865029049285</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1048,13 +1048,13 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>0.388123216496683</v>
+        <v>0.448965795177636</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>1.819907598678561</v>
+        <v>1.807989101611551</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1065,13 +1065,13 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>2.69102598245059</v>
+        <v>2.344479533229382</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>3.239034933968399</v>
+        <v>2.678665099633859</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1088,7 +1088,7 @@
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>0.5651273241891186</v>
+        <v>1.804067895915273</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1099,13 +1099,13 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>0.2809429127725194</v>
+        <v>0.9086884146237262</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>1.721404396148163</v>
+        <v>1.858034977419876</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1116,13 +1116,13 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-2.811030211656218</v>
+        <v>-3.096730754930321</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>0.8407670860975047</v>
+        <v>0.5284333133635188</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1133,13 +1133,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-1.669605379075589</v>
+        <v>-1.544852385424433</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>0.6305126186323617</v>
+        <v>0.9116752238737647</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1156,7 +1156,7 @@
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>0.4518870186319468</v>
+        <v>0.6746136605076947</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1167,13 +1167,13 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>1.069839250900739</v>
+        <v>1.37654878977862</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>1.634674340565567</v>
+        <v>1.701027207901151</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1184,13 +1184,13 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>1.250641979737566</v>
+        <v>1.477411815263086</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>1.466559393695466</v>
+        <v>1.648748338197037</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1201,13 +1201,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>1.780300968358017</v>
+        <v>1.824327384084601</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>1.762346671645298</v>
+        <v>1.824511239428506</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1224,7 +1224,7 @@
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>1.959987726090251</v>
+        <v>2.146365108912285</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1235,13 +1235,13 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>2.97447584856072</v>
+        <v>3.24986482706644</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>1.953339169714385</v>
+        <v>2.001743795688449</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1252,13 +1252,13 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>2.302179720973463</v>
+        <v>2.414613509548702</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>1.805984941845473</v>
+        <v>1.862575447557324</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1269,13 +1269,13 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>2.481068287768839</v>
+        <v>2.496198905957447</v>
       </c>
       <c r="D53">
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>1.908500198348873</v>
+        <v>1.931176570713755</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AR2_50_9_full.xlsx
@@ -422,9 +422,6 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>1.75539628881467</v>
-      </c>
       <c r="D2">
         <v>2008</v>
       </c>
@@ -447,9 +444,6 @@
       <c r="B4">
         <v>2008</v>
       </c>
-      <c r="C4">
-        <v>2.213911448916162</v>
-      </c>
       <c r="D4">
         <v>2009</v>
       </c>
@@ -493,7 +487,7 @@
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>1.903751357432193</v>
+        <v>1.903751357432215</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -510,7 +504,7 @@
         <v>2011</v>
       </c>
       <c r="E8">
-        <v>1.485473821631844</v>
+        <v>1.485473821631866</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -521,7 +515,7 @@
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>1.614140618728332</v>
+        <v>1.614140618728288</v>
       </c>
       <c r="D9">
         <v>2012</v>
@@ -538,13 +532,13 @@
         <v>2011</v>
       </c>
       <c r="C10">
-        <v>1.212544822741002</v>
+        <v>1.21254482274098</v>
       </c>
       <c r="D10">
         <v>2012</v>
       </c>
       <c r="E10">
-        <v>1.799394172339341</v>
+        <v>1.799394172339364</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -606,13 +600,13 @@
         <v>2013</v>
       </c>
       <c r="C14">
-        <v>0.4712609263772594</v>
+        <v>0.4712609263772816</v>
       </c>
       <c r="D14">
         <v>2014</v>
       </c>
       <c r="E14">
-        <v>1.107727073902187</v>
+        <v>1.107727073902165</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -623,7 +617,7 @@
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>0.5775251578155283</v>
+        <v>0.5775251578155061</v>
       </c>
       <c r="D15">
         <v>2015</v>
@@ -680,7 +674,7 @@
         <v>2016</v>
       </c>
       <c r="E18">
-        <v>2.221748592150097</v>
+        <v>2.221748592150141</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -708,7 +702,7 @@
         <v>2016</v>
       </c>
       <c r="C20">
-        <v>4.109890522944348</v>
+        <v>4.109890522944326</v>
       </c>
       <c r="D20">
         <v>2017</v>
@@ -725,13 +719,13 @@
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>1.713587272940131</v>
+        <v>1.713587272940154</v>
       </c>
       <c r="D21">
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>1.721854626734953</v>
+        <v>1.721854626734931</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -793,7 +787,7 @@
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>1.299469465444592</v>
+        <v>1.299469465444636</v>
       </c>
       <c r="D25">
         <v>2019</v>
@@ -816,7 +810,7 @@
         <v>2019</v>
       </c>
       <c r="E26">
-        <v>1.649865498505276</v>
+        <v>1.649865498505254</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -827,13 +821,13 @@
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>2.247656020455691</v>
+        <v>2.247656020455713</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>1.934175841213626</v>
+        <v>1.934175841213603</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -850,7 +844,7 @@
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>1.644188696416427</v>
+        <v>1.644188696416449</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -884,7 +878,7 @@
         <v>2020</v>
       </c>
       <c r="E30">
-        <v>2.284828905445169</v>
+        <v>2.284828905445191</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -895,13 +889,13 @@
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>2.684967757027334</v>
+        <v>2.684967757027357</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>2.075491449101596</v>
+        <v>2.075491449101574</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -963,13 +957,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>1.862551092269715</v>
+        <v>1.862551092269737</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>2.008389843939007</v>
+        <v>2.008389843939029</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -980,13 +974,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>2.250958781244572</v>
+        <v>2.250958781244594</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>1.736577049860766</v>
+        <v>1.736577049860744</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -997,7 +991,7 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>2.162762949176789</v>
+        <v>2.162762949176811</v>
       </c>
       <c r="D37">
         <v>2022</v>
@@ -1014,7 +1008,7 @@
         <v>2021</v>
       </c>
       <c r="C38">
-        <v>2.777797690741424</v>
+        <v>2.777797690741446</v>
       </c>
       <c r="D38">
         <v>2022</v>
@@ -1037,7 +1031,7 @@
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>1.987865029049285</v>
+        <v>1.987865029049263</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1054,7 +1048,7 @@
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>1.807989101611551</v>
+        <v>1.807989101611529</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1071,7 +1065,7 @@
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>2.678665099633859</v>
+        <v>2.678665099633881</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1088,7 +1082,7 @@
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>1.804067895915273</v>
+        <v>1.804067895915296</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1105,7 +1099,7 @@
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>1.858034977419876</v>
+        <v>1.858034977419898</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1116,13 +1110,13 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-3.096730754930321</v>
+        <v>-3.096730754930299</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>0.5284333133635188</v>
+        <v>0.528433313363541</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1133,7 +1127,7 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-1.544852385424433</v>
+        <v>-1.5448523854244</v>
       </c>
       <c r="D45">
         <v>2024</v>
@@ -1150,7 +1144,7 @@
         <v>2023</v>
       </c>
       <c r="C46">
-        <v>-1.432689847121871</v>
+        <v>-1.432689847121826</v>
       </c>
       <c r="D46">
         <v>2024</v>
@@ -1173,7 +1167,7 @@
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>1.701027207901151</v>
+        <v>1.701027207901173</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1184,13 +1178,13 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>1.477411815263086</v>
+        <v>1.477411815263108</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>1.648748338197037</v>
+        <v>1.648748338197015</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1201,13 +1195,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>1.824327384084601</v>
+        <v>1.824327384084623</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>1.824511239428506</v>
+        <v>1.824511239428483</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1218,13 +1212,13 @@
         <v>2024</v>
       </c>
       <c r="C50">
-        <v>2.033479419175133</v>
+        <v>2.033479419175155</v>
       </c>
       <c r="D50">
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>2.146365108912285</v>
+        <v>2.146365108912263</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1252,7 +1246,7 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>2.414613509548702</v>
+        <v>2.414613509548658</v>
       </c>
       <c r="D52">
         <v>2026</v>
@@ -1269,13 +1263,13 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>2.496198905957447</v>
+        <v>2.496198905957403</v>
       </c>
       <c r="D53">
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>1.931176570713755</v>
+        <v>1.9311765707138</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AR2_50_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1272,6 +1272,23 @@
         <v>1.9311765707138</v>
       </c>
     </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B54">
+        <v>2025</v>
+      </c>
+      <c r="C54">
+        <v>2.622852459381209</v>
+      </c>
+      <c r="D54">
+        <v>2026</v>
+      </c>
+      <c r="E54">
+        <v>1.946625946175717</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
